--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -405,17 +405,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>天天领金币</t>
-  </si>
-  <si>
     <t>捕鱼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>天天领金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>cjj</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -488,6 +481,14 @@
   </si>
   <si>
     <t>礼盒换好礼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>免费金币</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +619,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -695,6 +696,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,7 +984,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1451,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>87</v>
@@ -1498,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>64</v>
@@ -1545,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3">
@@ -1588,10 +1592,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -1600,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I14" s="20">
         <v>1614643200</v>
@@ -1615,7 +1619,7 @@
         <v>56</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -1635,10 +1639,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
@@ -1647,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" s="20">
         <v>1614643200</v>
@@ -1662,7 +1666,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -1682,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>65</v>
@@ -1879,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1940,7 +1944,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="3">
         <v>-20</v>
@@ -1949,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -1964,7 +1968,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -1984,7 +1988,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>87</v>
@@ -2106,97 +2110,97 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="21">
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="23">
         <v>25</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="21">
+        <v>3</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="21">
+        <v>1</v>
+      </c>
+      <c r="O26" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="21">
+        <v>26</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="23">
+        <v>26</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="3">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="F27" s="21">
+        <v>3</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J27" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1</v>
-      </c>
-      <c r="O26" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="8">
-        <v>26</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="3">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="L27" s="19" t="s">
+      <c r="L27" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="19" t="s">
+      <c r="M27" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" s="21">
+        <v>1</v>
+      </c>
+      <c r="O27" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2251,19 +2255,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2271,56 +2289,42 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>
--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -981,10 +981,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2154,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="O26" s="24" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2255,17 +2255,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2276,17 +2276,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,13 +2294,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2312,13 +2312,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -449,10 +449,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>玫瑰榜单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>节日福利</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -489,6 +485,10 @@
   </si>
   <si>
     <t>免费金币</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +619,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +700,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -981,10 +987,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1491,50 +1497,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="27">
         <v>11</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="21">
         <v>2</v>
       </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="21">
+        <v>4</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="20">
-        <v>1614643200</v>
-      </c>
-      <c r="J12" s="20">
-        <v>1615219199</v>
-      </c>
-      <c r="K12" s="19" t="s">
+      <c r="I12" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J12" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="19" t="s">
+      <c r="L12" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="19" t="s">
+      <c r="M12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="O12" s="19" t="s">
+      <c r="N12" s="21">
+        <v>1</v>
+      </c>
+      <c r="O12" s="24" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1592,7 +1598,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>100</v>
@@ -1604,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" s="20">
         <v>1614643200</v>
@@ -1639,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>99</v>
@@ -1651,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20">
         <v>1614643200</v>
@@ -1686,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>65</v>
@@ -1953,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -1988,7 +1994,7 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>87</v>
@@ -2121,7 +2127,7 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>91</v>
@@ -2133,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" s="21">
         <v>1615248000</v>
@@ -2168,7 +2174,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>92</v>
@@ -2180,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I27" s="21">
         <v>1615248000</v>
@@ -2255,17 +2261,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2276,17 +2282,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2294,13 +2300,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2312,13 +2318,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
   <si>
     <t>title|标题</t>
   </si>
@@ -490,6 +490,10 @@
   </si>
   <si>
     <t>actp_031_xxy_show</t>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -987,10 +991,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1519,7 +1523,9 @@
       <c r="G12" s="21">
         <v>4</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="I12" s="21">
         <v>1615248000</v>
       </c>
@@ -1770,47 +1776,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+    <row r="18" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="23">
         <v>17</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="21">
         <v>2</v>
       </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="21">
+        <v>1</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="20">
-        <v>1612828800</v>
-      </c>
-      <c r="J18" s="20">
-        <v>1613404799</v>
-      </c>
-      <c r="K18" s="19" t="s">
+      <c r="I18" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="O18" s="19" t="s">
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2262,14 +2268,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2281,16 +2289,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2301,13 +2307,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2319,13 +2325,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
   <si>
     <t>title|标题</t>
   </si>
@@ -494,6 +494,33 @@
   <si>
     <t>actp_no_cjj_gej_exchange</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统升级奖励</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_system_update_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_sjjl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_sjjl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
   </si>
 </sst>
 </file>
@@ -988,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2258,6 +2285,50 @@
         <v>20</v>
       </c>
     </row>
+    <row r="29" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="5">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-20</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1614643200</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O20"/>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2268,16 +2339,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2289,14 +2358,16 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2307,13 +2378,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2325,13 +2396,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -408,10 +408,6 @@
     <t>天天领金币</t>
   </si>
   <si>
-    <t>元宵福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>捕鱼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -488,6 +484,10 @@
   </si>
   <si>
     <t>actp_own_task_p_hljnh_046_hlfl_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒换好礼</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +618,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,19 +694,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -989,10 +977,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1452,97 +1440,97 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="20">
+        <v>1614643200</v>
+      </c>
+      <c r="J11" s="20">
+        <v>1615219199</v>
+      </c>
+      <c r="K11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="15">
+        <v>11</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F11" s="21">
-        <v>1</v>
-      </c>
-      <c r="G11" s="21">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="25">
+      <c r="E12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="20">
         <v>1614643200</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J12" s="20">
         <v>1615219199</v>
       </c>
-      <c r="K11" s="24" t="s">
+      <c r="K12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="21">
-        <v>1</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="26">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="21">
-        <v>2</v>
-      </c>
-      <c r="G12" s="21">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="25">
-        <v>1614643200</v>
-      </c>
-      <c r="J12" s="25">
-        <v>1615219199</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="N12" s="21">
-        <v>1</v>
-      </c>
-      <c r="O12" s="24" t="s">
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1557,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3">
@@ -1589,141 +1577,141 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="8">
         <v>13</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="20">
+        <v>1614643200</v>
+      </c>
+      <c r="J14" s="20">
+        <v>1615219199</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="8">
+        <v>14</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="E15" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="3">
         <v>3</v>
       </c>
-      <c r="G14" s="21">
-        <v>1</v>
-      </c>
-      <c r="H14" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="25">
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="20">
         <v>1614643200</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J15" s="20">
         <v>1615219199</v>
       </c>
-      <c r="K14" s="24" t="s">
+      <c r="K15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="24" t="s">
+      <c r="L15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="N14" s="21">
-        <v>1</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23">
-        <v>14</v>
-      </c>
-      <c r="D15" s="24" t="s">
+      <c r="C16" s="8">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3">
         <v>3</v>
       </c>
-      <c r="G15" s="21">
-        <v>1</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="25">
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="20">
         <v>1614643200</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J16" s="20">
         <v>1615219199</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L16" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M15" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="N15" s="21">
-        <v>1</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="23">
-        <v>15</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="21">
-        <v>3</v>
-      </c>
-      <c r="G16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="25">
-        <v>1614643200</v>
-      </c>
-      <c r="J16" s="25">
-        <v>1615219199</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="M16" s="24" t="s">
+      <c r="M16" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="N16" s="21">
-        <v>1</v>
-      </c>
-      <c r="O16" s="24" t="s">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="O16" s="19" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1891,7 +1879,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1952,7 +1940,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="3">
         <v>-20</v>
@@ -1961,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -1976,7 +1964,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -1985,48 +1973,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+    <row r="23" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="23">
         <v>22</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="19" t="s">
+      <c r="D23" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="3">
-        <v>1614038400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1614614399</v>
-      </c>
-      <c r="K23" s="19" t="s">
+      <c r="F23" s="21">
+        <v>2</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="19" t="s">
+      <c r="L23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="3">
-        <v>1</v>
-      </c>
-      <c r="O23" s="19" t="s">
+      <c r="N23" s="21">
+        <v>1</v>
+      </c>
+      <c r="O23" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2132,7 +2120,7 @@
         <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3">
         <v>4</v>
@@ -2140,8 +2128,8 @@
       <c r="G26" s="3">
         <v>1</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>110</v>
+      <c r="H26" s="25" t="s">
+        <v>109</v>
       </c>
       <c r="I26" s="3">
         <v>1614038400</v>
@@ -2156,7 +2144,7 @@
         <v>56</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N26" s="3">
         <v>1</v>
@@ -2176,10 +2164,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="F27" s="3">
         <v>4</v>
@@ -2187,8 +2175,8 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>111</v>
+      <c r="H27" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="I27" s="3">
         <v>1614038400</v>
@@ -2203,7 +2191,7 @@
         <v>55</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N27" s="3">
         <v>1</v>
@@ -2263,6 +2251,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2270,22 +2269,10 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2296,13 +2283,14 @@
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2314,13 +2302,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2332,7 +2320,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -977,10 +977,10 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2035,7 +2035,7 @@
         <v>64</v>
       </c>
       <c r="F24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G24" s="3">
         <v>1</v>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
@@ -2123,7 +2123,7 @@
         <v>92</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>94</v>
       </c>
       <c r="F27" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
@@ -2214,7 +2214,7 @@
         <v>85</v>
       </c>
       <c r="F28" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
@@ -2251,14 +2251,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2270,16 +2272,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2290,13 +2290,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2308,13 +2308,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
   <si>
     <t>title|标题</t>
   </si>
@@ -521,6 +521,47 @@
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>感恩回馈</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3以下</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4以上</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>actp_own_task_gehk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_v3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_gehk_v4v12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_lgfl_v4","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1015,13 +1056,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1545,10 +1586,10 @@
         <v>64</v>
       </c>
       <c r="F12" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="28" t="s">
         <v>113</v>
@@ -1817,7 +1858,7 @@
         <v>70</v>
       </c>
       <c r="F18" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18" s="21">
         <v>1</v>
@@ -2327,6 +2368,100 @@
       </c>
       <c r="O29" s="4" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="21">
+        <v>29</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="23">
+        <v>29</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="21">
+        <v>1</v>
+      </c>
+      <c r="G30" s="21">
+        <v>1</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J30" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="N30" s="21">
+        <v>1</v>
+      </c>
+      <c r="O30" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="21">
+        <v>30</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="23">
+        <v>30</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="21">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>1</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I31" s="21">
+        <v>1615248000</v>
+      </c>
+      <c r="J31" s="21">
+        <v>1615823999</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="21">
+        <v>1</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2339,17 +2474,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="2"/>
   <pixelatorList sheetStid="3"/>
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2357,58 +2512,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -535,32 +535,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>actp_own_task_gehk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_v3</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_gehk_v4v12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_ty_task","act_lgfl","panel"</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>"act_ty_task","act_lgfl_v4","panel"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_gehk_v4v12</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1062,7 +1049,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2393,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I30" s="21">
         <v>1615248000</v>
@@ -2408,7 +2395,7 @@
         <v>56</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
@@ -2440,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I31" s="21">
         <v>1615248000</v>
@@ -2455,7 +2442,7 @@
         <v>55</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N31" s="21">
         <v>1</v>
@@ -2474,37 +2461,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2512,38 +2468,69 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>title|标题</t>
   </si>
@@ -258,10 +258,6 @@
   </si>
   <si>
     <t>lbdh</t>
-  </si>
-  <si>
-    <t>act_039_ty_by_hhl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>activity_task</t>
@@ -1049,7 +1045,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1086,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -1232,13 +1228,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1297,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -1333,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1520,10 +1516,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1531,9 +1527,7 @@
       <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="20">
         <v>1614643200</v>
       </c>
@@ -1544,10 +1538,10 @@
         <v>13</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="3">
         <v>1</v>
@@ -1567,10 +1561,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F12" s="21">
         <v>4</v>
@@ -1579,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I12" s="21">
         <v>1615248000</v>
@@ -1591,16 +1585,16 @@
         <v>13</v>
       </c>
       <c r="L12" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N12" s="21">
         <v>1</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1614,7 +1608,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3">
@@ -1634,16 +1628,16 @@
         <v>13</v>
       </c>
       <c r="L13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="M13" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="N13" s="3">
         <v>1</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1657,10 +1651,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -1669,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" s="20">
         <v>1614643200</v>
@@ -1681,16 +1675,16 @@
         <v>13</v>
       </c>
       <c r="L14" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -1704,10 +1698,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
@@ -1716,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I15" s="20">
         <v>1614643200</v>
@@ -1728,10 +1722,10 @@
         <v>13</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -1751,10 +1745,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3">
         <v>3</v>
@@ -1763,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="20">
         <v>1614643200</v>
@@ -1775,16 +1769,16 @@
         <v>13</v>
       </c>
       <c r="L16" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M16" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1798,10 +1792,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1819,10 +1813,10 @@
         <v>13</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M17" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
@@ -1842,7 +1836,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="21">
         <v>4</v>
@@ -1851,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I18" s="21">
         <v>1615248000</v>
@@ -1863,16 +1857,16 @@
         <v>13</v>
       </c>
       <c r="L18" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="21">
         <v>1</v>
       </c>
       <c r="O18" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1886,7 +1880,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1895,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I19" s="20">
         <v>1612828800</v>
@@ -1907,10 +1901,10 @@
         <v>24</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -1930,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1948,10 +1942,10 @@
         <v>13</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1971,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1989,10 +1983,10 @@
         <v>13</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" s="3">
         <v>1</v>
@@ -2012,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="3">
         <v>-20</v>
@@ -2021,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -2033,10 +2027,10 @@
         <v>13</v>
       </c>
       <c r="L22" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -2056,10 +2050,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="21">
         <v>2</v>
@@ -2078,10 +2072,10 @@
         <v>13</v>
       </c>
       <c r="L23" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N23" s="21">
         <v>1</v>
@@ -2101,10 +2095,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="3">
         <v>3</v>
@@ -2123,16 +2117,16 @@
         <v>13</v>
       </c>
       <c r="L24" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M24" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N24" s="3">
         <v>1</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -2146,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3">
@@ -2166,16 +2160,16 @@
         <v>13</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2189,10 +2183,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F26" s="21">
         <v>3</v>
@@ -2201,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="21">
         <v>1615248000</v>
@@ -2213,10 +2207,10 @@
         <v>13</v>
       </c>
       <c r="L26" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N26" s="21">
         <v>1</v>
@@ -2236,10 +2230,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F27" s="21">
         <v>3</v>
@@ -2248,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I27" s="21">
         <v>1615248000</v>
@@ -2260,10 +2254,10 @@
         <v>13</v>
       </c>
       <c r="L27" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N27" s="21">
         <v>1</v>
@@ -2283,7 +2277,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2301,10 +2295,10 @@
         <v>13</v>
       </c>
       <c r="L28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -2318,13 +2312,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C29" s="5">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="4">
         <v>-20</v>
@@ -2333,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I29" s="4">
         <v>1614643200</v>
@@ -2342,19 +2336,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2368,11 +2362,11 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>122</v>
-      </c>
       <c r="F30" s="21">
         <v>1</v>
       </c>
@@ -2380,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I30" s="21">
         <v>1615248000</v>
@@ -2392,10 +2386,10 @@
         <v>13</v>
       </c>
       <c r="L30" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
@@ -2415,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -2427,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I31" s="21">
         <v>1615248000</v>
@@ -2439,10 +2433,10 @@
         <v>13</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N31" s="21">
         <v>1</v>
@@ -2461,17 +2455,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2482,17 +2476,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2500,13 +2494,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2518,13 +2512,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1038,10 +1038,10 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="M8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2448,14 +2448,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2466,16 +2468,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2487,13 +2487,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2505,13 +2505,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1045,7 +1045,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2324,7 +2324,7 @@
         <v>-20</v>
       </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>115</v>
@@ -2455,17 +2455,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2476,17 +2476,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2494,13 +2494,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2512,13 +2512,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="126">
   <si>
     <t>title|标题</t>
   </si>
@@ -497,10 +497,6 @@
   </si>
   <si>
     <t>系统升级奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_system_update_1</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1045,7 +1041,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2326,9 +2322,6 @@
       <c r="G29" s="4">
         <v>0</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="I29" s="4">
         <v>1614643200</v>
       </c>
@@ -2336,19 +2329,19 @@
         <v>-1</v>
       </c>
       <c r="K29" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="M29" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -2362,11 +2355,11 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>121</v>
-      </c>
       <c r="F30" s="21">
         <v>1</v>
       </c>
@@ -2374,7 +2367,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I30" s="21">
         <v>1615248000</v>
@@ -2389,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="M30" s="24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" s="21">
         <v>1</v>
@@ -2409,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F31" s="21">
         <v>1</v>
@@ -2421,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I31" s="21">
         <v>1615248000</v>
@@ -2436,7 +2429,7 @@
         <v>54</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" s="21">
         <v>1</v>
@@ -2455,6 +2448,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2462,69 +2486,38 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.9/game_activity_config.xlsx
+++ b/config_3.9/game_activity_config.xlsx
@@ -332,21 +332,18 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>actp_cjj_gej_exchange</t>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险福利</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_no_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange</t>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>探险福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_no_cjj_gej_exchange</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -490,6 +487,9 @@
   <si>
     <t>礼盒排行榜</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
   </si>
 </sst>
 </file>
@@ -990,7 +990,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1173,13 +1173,13 @@
         <v>-1</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -1238,7 +1238,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="15">
         <v>5</v>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1461,10 +1461,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>64</v>
@@ -1519,9 +1519,7 @@
       <c r="G12" s="21">
         <v>4</v>
       </c>
-      <c r="H12" s="28" t="s">
-        <v>72</v>
-      </c>
+      <c r="H12" s="28"/>
       <c r="I12" s="21">
         <v>1615248000</v>
       </c>
@@ -1555,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="3">
@@ -1598,10 +1596,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="3">
         <v>3</v>
@@ -1610,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I14" s="20">
         <v>1614643200</v>
@@ -1625,7 +1623,7 @@
         <v>56</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
@@ -1645,10 +1643,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" s="3">
         <v>3</v>
@@ -1657,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="20">
         <v>1614643200</v>
@@ -1672,7 +1670,7 @@
         <v>55</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N15" s="3">
         <v>1</v>
@@ -1692,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>65</v>
@@ -1703,6 +1701,9 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I16" s="20">
         <v>1614643200</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1789,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="20">
         <v>1612828800</v>
@@ -1810,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1824,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1833,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="20">
         <v>1612828800</v>
@@ -1845,10 +1846,10 @@
         <v>24</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
@@ -1868,7 +1869,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1889,7 +1890,7 @@
         <v>55</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
@@ -1909,7 +1910,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1950,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3">
         <v>-20</v>
@@ -1959,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I22" s="3">
         <v>1613433600</v>
@@ -1974,7 +1975,7 @@
         <v>55</v>
       </c>
       <c r="M22" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N22" s="3">
         <v>1</v>
@@ -1994,10 +1995,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="21">
         <v>2</v>
@@ -2039,7 +2040,7 @@
         <v>23</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>64</v>
@@ -2084,7 +2085,7 @@
         <v>24</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="3">
@@ -2107,7 +2108,7 @@
         <v>56</v>
       </c>
       <c r="M25" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N25" s="3">
         <v>1</v>
@@ -2127,10 +2128,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F26" s="21">
         <v>3</v>
@@ -2139,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I26" s="21">
         <v>1615248000</v>
@@ -2154,7 +2155,7 @@
         <v>56</v>
       </c>
       <c r="M26" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N26" s="21">
         <v>1</v>
@@ -2174,10 +2175,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F27" s="21">
         <v>3</v>
@@ -2186,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" s="21">
         <v>1615248000</v>
@@ -2201,7 +2202,7 @@
         <v>55</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N27" s="21">
         <v>1</v>
@@ -2221,7 +2222,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -2242,7 +2243,7 @@
         <v>55</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N28" s="3">
         <v>1</v>
@@ -2268,17 +2269,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2288,15 +2287,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2306,13 +2307,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2324,13 +2325,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>